--- a/target/test-classes/suites.xlsx
+++ b/target/test-classes/suites.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -34,52 +34,64 @@
     <t xml:space="preserve">LoginTest</t>
   </si>
   <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProceedOnFail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsdfsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openBrowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedResult</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProceedOnFail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpectedResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozilla</t>
   </si>
   <si>
     <t xml:space="preserve">example@mail.com</t>
@@ -258,12 +270,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,8 +314,8 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,31 +346,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -373,10 +389,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,19 +411,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -453,227 +514,227 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
+      <c r="A12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
+      <c r="A16" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
+      <c r="A21" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -713,33 +774,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/suites.xlsx
+++ b/target/test-classes/suites.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">TestB</t>
   </si>
   <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestC</t>
   </si>
   <si>
@@ -64,63 +67,102 @@
     <t xml:space="preserve">Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Starts up driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openBrowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.google.com//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="tsf"]/div[2]/div/div[1]/div/div[1]/input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">googler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pressEnter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//*[@id="tsf"]/div[2]/div/div[3]/center/input[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginSuccess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginFailure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdsfsd</t>
+  </si>
+  <si>
     <t xml:space="preserve">fsdfsd</t>
   </si>
   <si>
-    <t xml:space="preserve">openBrowser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">navigate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExpectedResult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example@mail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginSuccess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoginFailure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
+    <t xml:space="preserve">fsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col1</t>
   </si>
   <si>
     <t xml:space="preserve">Col2</t>
   </si>
   <si>
+    <t xml:space="preserve">Col3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dummy2</t>
   </si>
   <si>
@@ -128,15 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dummy4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy1</t>
   </si>
   <si>
     <t xml:space="preserve">Apply?</t>
@@ -315,7 +348,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,12 +379,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -359,7 +392,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -367,7 +400,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -389,10 +422,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,7 +433,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
@@ -411,19 +444,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,47 +464,69 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>4</v>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://www.google.com//"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -487,15 +542,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
@@ -523,50 +578,50 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,16 +629,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -592,156 +647,149 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="E22" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="example@mail.com"/>
     <hyperlink ref="C4" r:id="rId2" display="example@mail.com"/>
-    <hyperlink ref="C23" r:id="rId3" display="example@mail.com"/>
+    <hyperlink ref="C22" r:id="rId3" display="example@mail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -761,7 +809,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U12" activeCellId="0" sqref="U12"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,33 +822,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
